--- a/data/case1/20/V1_1.xlsx
+++ b/data/case1/20/V1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.9999999943330371</v>
+        <v>0.99999999005685725</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99587360564480421</v>
+        <v>0.99530002778030868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98059646478227047</v>
+        <v>0.97387034383030491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97516459815607637</v>
+        <v>0.96640767468129507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.97028723354217905</v>
+        <v>0.95943385547291871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95977302575014067</v>
+        <v>0.9452216443019148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9578634892388016</v>
+        <v>0.94375267116972061</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95484921541214285</v>
+        <v>0.94456077982082287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95407853891667649</v>
+        <v>0.94891496341512571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95425286148654953</v>
+        <v>0.95430610660932613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95432044715949305</v>
+        <v>0.95373138154321824</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95470592711719149</v>
+        <v>0.95095240398346492</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95940914083558804</v>
+        <v>0.93966816109022577</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95724274337795801</v>
+        <v>0.9355014956995954</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95574769634107648</v>
+        <v>0.93291036898897839</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95324153452476035</v>
+        <v>0.9304041168518038</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94953393449732237</v>
+        <v>0.92669645780111143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94842503658131661</v>
+        <v>0.9255875773683786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99388199491183182</v>
+        <v>0.99424687785984456</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9781461086279496</v>
+        <v>0.98713004410619454</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97461906033990386</v>
+        <v>0.98573159426207035</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.96989179705211381</v>
+        <v>0.98446709850918479</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97356138234352363</v>
+        <v>0.96683487342347507</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96054021787324051</v>
+        <v>0.95381329791327696</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95408317413924459</v>
+        <v>0.94735619893977008</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95905182236447328</v>
+        <v>0.94235730747869662</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95830038247442362</v>
+        <v>0.93911517276022582</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95607441680200833</v>
+        <v>0.92530038516936652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.95517047417458678</v>
+        <v>0.91570934547008287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.95572073275564007</v>
+        <v>0.91188614568656379</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.96651888001049913</v>
+        <v>0.91150334280266365</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.96732206599279547</v>
+        <v>0.91237438819348304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.96680205635346805</v>
+        <v>0.91185439506984234</v>
       </c>
     </row>
   </sheetData>
